--- a/data/coldata_part1.xlsx
+++ b/data/coldata_part1.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricar\Documents\Workshop_2024\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricar\OneDrive - Josep Carreras Leukaemia Research Institute (IJC)\Documentos\WorkshopR_Bioinformatics_FCUP2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01409ADF-B76D-4E59-804F-4EC10108F9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6395E67-EED5-4AEC-9F0F-643951D4CF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7AC1237C-381E-4F05-ACB0-37860C700F2C}"/>
   </bookViews>
   <sheets>
-    <sheet name="coldata" sheetId="1" r:id="rId1"/>
+    <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="28">
   <si>
     <t>Sample</t>
   </si>
@@ -120,39 +120,6 @@
   </si>
   <si>
     <t>F</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>C10</t>
   </si>
 </sst>
 </file>
@@ -530,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB8401AF-FB86-4608-8C97-0501C94CF696}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30:D31"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -832,146 +799,6 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22">
-        <v>47</v>
-      </c>
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23">
-        <v>22</v>
-      </c>
-      <c r="D23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24">
-        <v>36</v>
-      </c>
-      <c r="D24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25">
-        <v>19</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26">
-        <v>14</v>
-      </c>
-      <c r="D26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27">
-        <v>55</v>
-      </c>
-      <c r="D27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28">
-        <v>91</v>
-      </c>
-      <c r="D28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29">
-        <v>85</v>
-      </c>
-      <c r="D29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30">
-        <v>19</v>
-      </c>
-      <c r="D30" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31">
-        <v>28</v>
-      </c>
-      <c r="D31" t="s">
-        <v>27</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
